--- a/gu_in/Map.edf/neutralCS1.xlsx
+++ b/gu_in/Map.edf/neutralCS1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E787CF-E2BD-46C2-9E01-4DF77FB8CE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92703B92-A80F-408C-B8C2-64975CCF8863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="18480" windowHeight="11205" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68948,7 +68948,7 @@
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -69016,7 +69016,7 @@
         <v>-13289</v>
       </c>
       <c r="D3" s="1">
-        <v>-1057</v>
+        <v>-2001057</v>
       </c>
       <c r="E3" s="1">
         <v>-7416</v>
@@ -69094,7 +69094,7 @@
         <v>-13286</v>
       </c>
       <c r="D6" s="1">
-        <v>-1058</v>
+        <v>-2001058</v>
       </c>
       <c r="E6" s="1">
         <v>-7353</v>

--- a/gu_in/Map.edf/neutralCS1.xlsx
+++ b/gu_in/Map.edf/neutralCS1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92703B92-A80F-408C-B8C2-64975CCF8863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69CDB71-2DB4-42EE-BA80-62496A70535C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="18480" windowHeight="11205" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -68948,7 +68948,7 @@
   <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -69016,7 +69016,7 @@
         <v>-13289</v>
       </c>
       <c r="D3" s="1">
-        <v>-2001057</v>
+        <v>-1257</v>
       </c>
       <c r="E3" s="1">
         <v>-7416</v>
@@ -69042,7 +69042,7 @@
         <v>-13566</v>
       </c>
       <c r="D4" s="1">
-        <v>-2001057</v>
+        <v>-1257</v>
       </c>
       <c r="E4" s="1">
         <v>-6816</v>
@@ -69094,7 +69094,7 @@
         <v>-13286</v>
       </c>
       <c r="D6" s="1">
-        <v>-2001058</v>
+        <v>-1258</v>
       </c>
       <c r="E6" s="1">
         <v>-7353</v>
@@ -69120,7 +69120,7 @@
         <v>-13496</v>
       </c>
       <c r="D7" s="1">
-        <v>-2001058</v>
+        <v>-1258</v>
       </c>
       <c r="E7" s="1">
         <v>-6865</v>
